--- a/bin/template.xlsx
+++ b/bin/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\authz-config-generate\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB7B72-4966-4F5A-B84B-07CB57397F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29261756-A184-4036-8827-CE949DC12EF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1100" windowWidth="27840" windowHeight="15440" xr2:uid="{96D26B57-BD6D-6549-B9FD-FA11E7C847FE}"/>
+    <workbookView xWindow="960" yWindow="1100" windowWidth="27840" windowHeight="15440" activeTab="1" xr2:uid="{96D26B57-BD6D-6549-B9FD-FA11E7C847FE}"/>
   </bookViews>
   <sheets>
     <sheet name="权限配置" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>预约管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>appointment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,10 +314,6 @@
   </si>
   <si>
     <t>预约管理1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appointmentList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -335,6 +327,48 @@
   <si>
     <t>预约管理1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointment</t>
+  </si>
+  <si>
+    <t>appointmentList</t>
+  </si>
+  <si>
+    <t>appointmentSettingList</t>
+  </si>
+  <si>
+    <t>vehicleSettingList</t>
+  </si>
+  <si>
+    <t>dockAppointmentLineupList</t>
+  </si>
+  <si>
+    <t>configSetting</t>
+  </si>
+  <si>
+    <t>configSettingIndexshelves</t>
+  </si>
+  <si>
+    <t>configSettingUpShelves</t>
+  </si>
+  <si>
+    <t>configSettingDownShelves</t>
+  </si>
+  <si>
+    <t>receipts</t>
+  </si>
+  <si>
+    <t>configSettingReceiptsList</t>
+  </si>
+  <si>
+    <t>configSettingIndexaging</t>
+  </si>
+  <si>
+    <t>configSettingagingThresholdList</t>
+  </si>
+  <si>
+    <t>configSettingtimeWindowList</t>
   </si>
 </sst>
 </file>
@@ -801,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2EBB2F-3861-9641-A932-0F6BD6858053}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -862,14 +896,14 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -878,14 +912,14 @@
       <c r="B4" s="9"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -894,10 +928,10 @@
       <c r="B5" s="9"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -908,7 +942,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -919,7 +953,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -927,10 +961,10 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -943,7 +977,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -961,7 +995,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>4</v>
@@ -1002,13 +1036,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1017,13 +1051,13 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1032,10 +1066,10 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1045,7 +1079,7 @@
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
@@ -1107,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B99F4D9-9AC5-4927-97E1-B0B9F2E8CD14}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1142,7 +1176,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -1150,16 +1184,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1167,7 +1201,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1178,13 +1212,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -1192,13 +1226,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -1206,125 +1240,125 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1350,18 +1384,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1369,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1377,23 +1411,23 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/bin/template.xlsx
+++ b/bin/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\authz-config-generate\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\test-authz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29261756-A184-4036-8827-CE949DC12EF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D527440C-5579-4F04-845E-78AABE5D9EAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="1100" windowWidth="27840" windowHeight="15440" activeTab="1" xr2:uid="{96D26B57-BD6D-6549-B9FD-FA11E7C847FE}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>预约管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -161,6 +161,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>appointment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>车辆设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +318,10 @@
   </si>
   <si>
     <t>预约管理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointmentList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -329,46 +337,80 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>appointment</t>
-  </si>
-  <si>
-    <t>appointmentList</t>
-  </si>
-  <si>
     <t>appointmentSettingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vehicleSettingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dockAppointmentLineupList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>configSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>configSettingIndexshelves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>configSettingUpShelves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>configSettingDownShelves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>receipts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>configSettingReceiptsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>configSettingIndexaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>configSettingagingThresholdList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>configSettingtimeWindowList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -482,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,6 +560,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2EBB2F-3861-9641-A932-0F6BD6858053}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -888,38 +933,42 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -931,92 +980,93 @@
         <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
@@ -1029,35 +1079,35 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1066,49 +1116,49 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
@@ -1119,17 +1169,32 @@
       </c>
       <c r="G17" s="3"/>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A4:A10"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1139,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B99F4D9-9AC5-4927-97E1-B0B9F2E8CD14}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B2:B15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1173,66 +1238,66 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>93</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -1240,108 +1305,108 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
@@ -1349,16 +1414,44 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1384,18 +1477,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1403,7 +1496,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1411,23 +1504,23 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
